--- a/output/fit_clients/fit_round_172.xlsx
+++ b/output/fit_clients/fit_round_172.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1697762399.750408</v>
+        <v>1617145399.683254</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1108445158277419</v>
+        <v>0.1086828982963034</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03709139871012092</v>
+        <v>0.03019026566681035</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>848881154.8212456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2211450795.323976</v>
+        <v>1971822723.596625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1259531244568819</v>
+        <v>0.1363418430719638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03398090094167634</v>
+        <v>0.04999901577738625</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1105725470.437831</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3958861847.816114</v>
+        <v>3486370870.684164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1283592435485904</v>
+        <v>0.1106020803809025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03363177630471298</v>
+        <v>0.0273720356370237</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>62</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1979430935.13929</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2808380704.192284</v>
+        <v>2802779856.933861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07482491699925319</v>
+        <v>0.0860996377798636</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04304720639838146</v>
+        <v>0.03893718018720042</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1404190434.562989</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1898111729.420197</v>
+        <v>1900840146.203391</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1490894992185195</v>
+        <v>0.1444399678526733</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05343443017367358</v>
+        <v>0.04359750913604017</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>949055905.3104284</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2849836610.45752</v>
+        <v>3032422622.302715</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06246794452604516</v>
+        <v>0.06165458728694518</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03315541089161617</v>
+        <v>0.03748622556969303</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>54</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1424918284.520998</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3539056184.071275</v>
+        <v>3671298738.910764</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2041639469773413</v>
+        <v>0.1675762230462035</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02574652552011553</v>
+        <v>0.02286047107239112</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>54</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1769528204.625602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1669420007.537243</v>
+        <v>2038530502.034943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1913018223367803</v>
+        <v>0.1267449546494823</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02501083570054032</v>
+        <v>0.0244754893346928</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>834710076.2036389</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4195098880.184901</v>
+        <v>4475867895.996604</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2098430536124479</v>
+        <v>0.1683649234236531</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04355352164647406</v>
+        <v>0.03969817085777448</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>72</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2097549477.035609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2682041945.01772</v>
+        <v>3638048092.584584</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1248472082370033</v>
+        <v>0.1792017106019794</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03981068899199055</v>
+        <v>0.03195081668666241</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>71</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1341020893.229109</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3208519864.322316</v>
+        <v>2020009227.311605</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1302770129668781</v>
+        <v>0.1442022155349774</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03637856365036452</v>
+        <v>0.03287267209270461</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>60</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1604259969.239251</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3916487437.01662</v>
+        <v>4395275069.159845</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09735737783634521</v>
+        <v>0.1012789720751575</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02328007592758306</v>
+        <v>0.02540443742725134</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>58</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1958243777.652834</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3127577770.330125</v>
+        <v>3610035169.691598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1808081846277939</v>
+        <v>0.1193327811764053</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03147192372040775</v>
+        <v>0.02727140795225786</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>56</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1563788910.336461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1607074772.563141</v>
+        <v>1238144116.835072</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09078513592651997</v>
+        <v>0.09565619277973426</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0388549806309698</v>
+        <v>0.03263292287555592</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>803537496.0264703</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2779720930.500909</v>
+        <v>1962206846.686498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1025695842833492</v>
+        <v>0.07279386494653479</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03745218451706607</v>
+        <v>0.03810091299025233</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>26</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1389860471.039404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5174014840.77285</v>
+        <v>5100102503.297195</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1592540321620295</v>
+        <v>0.1456740176577993</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03461898026972605</v>
+        <v>0.03322014784531221</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>50</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2587007396.948949</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2665076399.393959</v>
+        <v>3652477274.206813</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1384717667321271</v>
+        <v>0.1256221236374442</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02985754336558881</v>
+        <v>0.0313711359175245</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1332538254.176815</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1282532115.852751</v>
+        <v>1270049725.887472</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1645354338974065</v>
+        <v>0.1422865660979824</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01797386632777651</v>
+        <v>0.02705737298545287</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>641266155.8882217</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1886262037.61937</v>
+        <v>2151840855.45463</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1110352306557594</v>
+        <v>0.1324645295546964</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02051597326761043</v>
+        <v>0.02578696397517848</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>943131057.2402897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1664044204.163449</v>
+        <v>2497091842.203948</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1024680211921555</v>
+        <v>0.0981880798763948</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03151413495914453</v>
+        <v>0.0311446846724707</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>832022170.1375799</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2979545398.639773</v>
+        <v>3428919845.377243</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1317765973941253</v>
+        <v>0.09841523516949553</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04530317799656713</v>
+        <v>0.04504830944282431</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>47</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1489772762.049055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1453900213.426208</v>
+        <v>1338013102.534415</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1577168272347336</v>
+        <v>0.1596887544233275</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04379714732157303</v>
+        <v>0.03687543702717734</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>726950100.3860123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4002320546.352488</v>
+        <v>3497258233.489386</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1185140648554839</v>
+        <v>0.1167783387614722</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02366216664028863</v>
+        <v>0.03000230468215813</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2001160240.987573</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1131584875.15806</v>
+        <v>1173203068.272354</v>
       </c>
       <c r="F25" t="n">
-        <v>0.113443994052851</v>
+        <v>0.08076854330094776</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02588383797480935</v>
+        <v>0.01865117965396599</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>565792471.2560029</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1112577482.56957</v>
+        <v>1228692629.412038</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07657017719953713</v>
+        <v>0.1165680026225017</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02479392229239811</v>
+        <v>0.02378805645532704</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>556288740.9408185</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3393637620.913779</v>
+        <v>3655496823.634829</v>
       </c>
       <c r="F27" t="n">
-        <v>0.139775738181753</v>
+        <v>0.1368295118099759</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02324849990625403</v>
+        <v>0.02381724351331219</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1696818850.683202</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2414976437.127522</v>
+        <v>2664925739.722335</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1124010108313967</v>
+        <v>0.1036523271300423</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04694586911390632</v>
+        <v>0.04061278889751004</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>55</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1207488178.971002</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5703443981.642831</v>
+        <v>3776446652.56053</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1040416963748294</v>
+        <v>0.1517891087486969</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03771895167113098</v>
+        <v>0.03486362558296171</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2851721889.652129</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1469784952.657904</v>
+        <v>1508872380.185818</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09213710967279866</v>
+        <v>0.1094447718335492</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03083156161892538</v>
+        <v>0.02693791143271061</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>734892453.403381</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1311326748.501594</v>
+        <v>1040369264.413862</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07467702937544463</v>
+        <v>0.08533423258583278</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04936816226010862</v>
+        <v>0.0462089336492724</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>655663299.4735818</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1571450251.226623</v>
+        <v>1560428935.092137</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09200825288899332</v>
+        <v>0.1145327825176296</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02931632824076771</v>
+        <v>0.03325553643952227</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>785725208.7441161</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2212411879.752082</v>
+        <v>2664244497.23278</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1571694350206722</v>
+        <v>0.169909902963408</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05566359865568655</v>
+        <v>0.03693344122586021</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>53</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1106206002.537505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1452948070.859041</v>
+        <v>1073590235.076694</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07783189100574614</v>
+        <v>0.08005787981718404</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02421876060701771</v>
+        <v>0.0211986024671001</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>726473998.937741</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>821567196.3051484</v>
+        <v>1181392812.347969</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07412726328903207</v>
+        <v>0.1137514635076457</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03362890314649791</v>
+        <v>0.03486448099247963</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>410783655.8450834</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2894172433.193608</v>
+        <v>3030058020.553574</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1415781082286136</v>
+        <v>0.1420805576139767</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01878325859858826</v>
+        <v>0.02611845355276678</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>43</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1447086206.963726</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1804381098.725006</v>
+        <v>1853890337.011761</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09458226933815192</v>
+        <v>0.09376953813702926</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02808010726568642</v>
+        <v>0.02998454308326576</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>48</v>
-      </c>
-      <c r="J37" t="n">
-        <v>902190549.7078968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1521951587.615367</v>
+        <v>1803486073.578124</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07553937410378123</v>
+        <v>0.07490497362079739</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02512300246336573</v>
+        <v>0.03998813870565032</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>760975839.9331187</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1862226566.295573</v>
+        <v>1656108643.407457</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1652496138076662</v>
+        <v>0.1183413776928391</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02758353633517063</v>
+        <v>0.02909394238042116</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>931113298.5884572</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1563954551.471241</v>
+        <v>1452064745.268545</v>
       </c>
       <c r="F40" t="n">
-        <v>0.117451117265292</v>
+        <v>0.1235943258720295</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04167796466974167</v>
+        <v>0.0398619887138961</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>781977225.8741486</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1895667197.709945</v>
+        <v>2005602434.610943</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1159525242796172</v>
+        <v>0.1540398400275921</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04693472240971029</v>
+        <v>0.03608503830105352</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45</v>
-      </c>
-      <c r="J41" t="n">
-        <v>947833683.2330519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3803056456.306554</v>
+        <v>3405661997.63129</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08258852094344504</v>
+        <v>0.1015584732742542</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04008296723606049</v>
+        <v>0.0282351066094864</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1901528243.856348</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2964686690.335175</v>
+        <v>2887184493.8614</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1585801748441668</v>
+        <v>0.1712942605759646</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02454887074990886</v>
+        <v>0.01732116310380361</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>59</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1482343347.090762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1830680214.463049</v>
+        <v>2175474360.581318</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09001091667371601</v>
+        <v>0.07927592124785796</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03026860930333492</v>
+        <v>0.03407471071483337</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>915340179.7519344</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2540724934.093589</v>
+        <v>2266121469.054411</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1350368794908803</v>
+        <v>0.1669774892177774</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03993940730740275</v>
+        <v>0.04803948679375863</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1270362512.374699</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3867832047.202244</v>
+        <v>5244424420.260526</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1186579298707718</v>
+        <v>0.1400577847688341</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0521786486876905</v>
+        <v>0.0376571596393548</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>61</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1933915985.573508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4180549831.843359</v>
+        <v>4335257324.368686</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1669786293211676</v>
+        <v>0.1493069418225325</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05853897116563348</v>
+        <v>0.05820188525806472</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>46</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2090274925.242537</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4088455385.621062</v>
+        <v>3522152611.874209</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1062373085175845</v>
+        <v>0.08089336116767584</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03842529642738115</v>
+        <v>0.03389126233497336</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2044227721.993164</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1585770778.26252</v>
+        <v>1417455194.712336</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1308208027360535</v>
+        <v>0.122761538037961</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04026857039349429</v>
+        <v>0.03632268385534463</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>792885407.796535</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2691862037.382508</v>
+        <v>4169894195.064637</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1271727967648116</v>
+        <v>0.1312810769923745</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0492192974013802</v>
+        <v>0.04346332758601571</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>59</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1345931100.417784</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1405332646.322554</v>
+        <v>1291903595.546089</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1523111229006403</v>
+        <v>0.1936722673044062</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05118967388976831</v>
+        <v>0.04181851551226595</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>702666341.4114071</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3569292966.725831</v>
+        <v>3296541461.472159</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08484727341220756</v>
+        <v>0.1178136006873541</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05245705905947223</v>
+        <v>0.04135913062517147</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>71</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1784646565.171305</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3614965689.092733</v>
+        <v>3453805918.123988</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1238002298364167</v>
+        <v>0.1367383803940267</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02427277629681111</v>
+        <v>0.0247545865424159</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>49</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1807482834.494199</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3654058753.875446</v>
+        <v>3824867031.106884</v>
       </c>
       <c r="F54" t="n">
-        <v>0.169032321220919</v>
+        <v>0.1630119578309695</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0506716295548752</v>
+        <v>0.0484300977055255</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>57</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1827029413.797265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4982383633.753936</v>
+        <v>3759303741.293338</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2232324521440755</v>
+        <v>0.1545442459325312</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02610465063003559</v>
+        <v>0.02419917218247726</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2491191835.113176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1880028612.053558</v>
+        <v>1559044926.603528</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1226663556512888</v>
+        <v>0.1091677490941248</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05716172130580795</v>
+        <v>0.0562463302985963</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>940014291.9673237</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3470329618.569076</v>
+        <v>3658193993.315051</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1387564164498823</v>
+        <v>0.1847715306203676</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01881950836731177</v>
+        <v>0.02259649650408104</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1735164853.14922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1287384541.538678</v>
+        <v>1235251541.213706</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1667115572530395</v>
+        <v>0.1410125973347194</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03309227309021289</v>
+        <v>0.03353094611122394</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>643692321.287794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5038332766.742748</v>
+        <v>3440192713.972144</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1054509572718046</v>
+        <v>0.1259318098883686</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04811116869375837</v>
+        <v>0.03092117933497625</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2519166309.208471</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3618351121.419831</v>
+        <v>2284661194.404443</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1808272982143785</v>
+        <v>0.1446209533536096</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02531302085657338</v>
+        <v>0.02789147129214361</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>53</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1809175695.886282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3301383801.764259</v>
+        <v>3299202167.032681</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1608288602990439</v>
+        <v>0.1314592064024441</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0220674155493129</v>
+        <v>0.03144418169606131</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>58</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1650691852.898959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1968434652.768748</v>
+        <v>1446466124.546121</v>
       </c>
       <c r="F62" t="n">
-        <v>0.181486780544495</v>
+        <v>0.1223750227015876</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04645254624681289</v>
+        <v>0.04584752350668284</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>984217379.6559345</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5136556295.557117</v>
+        <v>5442792634.782302</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1040257030790519</v>
+        <v>0.09416923220210109</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04414551091134322</v>
+        <v>0.04534115030029712</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>49</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2568278159.403495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4983284917.79214</v>
+        <v>4994175285.726231</v>
       </c>
       <c r="F64" t="n">
-        <v>0.125118617746039</v>
+        <v>0.1744748005563123</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02594319461885074</v>
+        <v>0.02893962104891354</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>53</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2491642563.879379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5081255258.900738</v>
+        <v>4452278231.31424</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1164371568930199</v>
+        <v>0.147194353044321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0272650721726065</v>
+        <v>0.02051931315677059</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>62</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2540627583.479697</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4712550774.831905</v>
+        <v>4977472161.436671</v>
       </c>
       <c r="F66" t="n">
-        <v>0.149809121387359</v>
+        <v>0.09792871119432273</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05001707052497576</v>
+        <v>0.03157126997651424</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>50</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2356275399.147267</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2626613787.282817</v>
+        <v>2670111351.520233</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09428159239474369</v>
+        <v>0.08604622955785812</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0504380769574769</v>
+        <v>0.04236082412026285</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>55</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1313306943.509843</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4649963698.337605</v>
+        <v>5892329484.018648</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1543009771190722</v>
+        <v>0.1510004595629772</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0355302327189305</v>
+        <v>0.03774650110376029</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>56</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2324981884.323297</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1776961853.863756</v>
+        <v>1612801544.17859</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1648952450026081</v>
+        <v>0.1200983251467723</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04006970413617877</v>
+        <v>0.04411144792643373</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>888480903.0228962</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3287013476.622835</v>
+        <v>3075157274.592127</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09416606093259805</v>
+        <v>0.06435558578331405</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04494164973986099</v>
+        <v>0.03595305867937088</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>49</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1643506733.912021</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4897609683.432061</v>
+        <v>3704864682.968389</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1317765536508197</v>
+        <v>0.164711115724515</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02850319343801955</v>
+        <v>0.02684904787746247</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>62</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2448804939.726995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1969089067.96668</v>
+        <v>1856449221.056011</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0834872191528931</v>
+        <v>0.09318868570626748</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04464122508663899</v>
+        <v>0.05164293639165234</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>984544485.3027266</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2661591837.441678</v>
+        <v>3135209935.162083</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1114527311501455</v>
+        <v>0.07331546108613736</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03803639547753522</v>
+        <v>0.03764042276263153</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>67</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1330795945.644972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2499732709.543253</v>
+        <v>3968000105.584969</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1392316711880642</v>
+        <v>0.1648497344645996</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03138365855133046</v>
+        <v>0.0336759813536766</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>59</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1249866463.398385</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2027150948.323239</v>
+        <v>1976577529.405003</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1357038311919783</v>
+        <v>0.1179746498160822</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03075575778683674</v>
+        <v>0.03206321653401462</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1013575435.826658</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3476320993.043633</v>
+        <v>4748962547.455624</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1205233624452443</v>
+        <v>0.08343493496885271</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03246806671110499</v>
+        <v>0.0324907102863975</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1738160459.268527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1587667731.560541</v>
+        <v>2112092959.556706</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1294150407416208</v>
+        <v>0.1562713297151499</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03000715867304358</v>
+        <v>0.02289789592808495</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>793833866.3521348</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2920969228.906125</v>
+        <v>3862693319.146071</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1212464041586077</v>
+        <v>0.08385734829525153</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03488165832722243</v>
+        <v>0.04218863401201452</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>60</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1460484657.379464</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1551107868.053025</v>
+        <v>1360554726.426006</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1720134733814676</v>
+        <v>0.1378765132919063</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03841051860624056</v>
+        <v>0.03907497946507513</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>775553977.1164007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5055228350.677064</v>
+        <v>3719677494.983611</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09078870641616876</v>
+        <v>0.09915797354690703</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02659846106209523</v>
+        <v>0.03557742185956828</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>36</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2527614227.260343</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3383633807.845992</v>
+        <v>4918961823.483651</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1004748456247851</v>
+        <v>0.09609003070972265</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03182033845416651</v>
+        <v>0.02095081223173638</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1691816844.226716</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3567318337.509658</v>
+        <v>4143992206.80638</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1687153702203366</v>
+        <v>0.1522640941988161</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01784304555237386</v>
+        <v>0.01835001912511025</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1783659232.599631</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2385733416.626257</v>
+        <v>2203199845.734947</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1103881032733679</v>
+        <v>0.1343760336299366</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03941559690530451</v>
+        <v>0.03133918246019965</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1192866741.60702</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2562465340.76274</v>
+        <v>1901727473.095344</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08903561559312044</v>
+        <v>0.1193304593701572</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04523297745335333</v>
+        <v>0.04273419669266565</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1281232592.970311</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2281594036.451823</v>
+        <v>2501207552.503739</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1557356098209625</v>
+        <v>0.1660649383150377</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04827901707275364</v>
+        <v>0.05052998279823953</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>65</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1140796999.051997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2265706729.925372</v>
+        <v>1824606328.694198</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1214601811181634</v>
+        <v>0.1559056887035065</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02489468260287883</v>
+        <v>0.01749032715436278</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1132853429.506068</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1192254463.811667</v>
+        <v>1364474837.817964</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1709032521420955</v>
+        <v>0.1395070196279812</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02810354437268194</v>
+        <v>0.03162328415876285</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>596127285.4739473</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3559029022.955295</v>
+        <v>2271740616.606838</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1233043877508409</v>
+        <v>0.167533811407644</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0286860731707721</v>
+        <v>0.02494951134303783</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>67</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1779514597.129047</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2239918155.981174</v>
+        <v>3207045703.763888</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1581101373022567</v>
+        <v>0.09687605518772299</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02987043886020023</v>
+        <v>0.03665960549858961</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1119959171.780458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2093510586.810594</v>
+        <v>1728334883.427199</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09394955359393202</v>
+        <v>0.09425905612664971</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04242136747795131</v>
+        <v>0.04518782870429301</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1046755380.720312</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1707588091.10733</v>
+        <v>1895956927.790145</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1788841453805945</v>
+        <v>0.1391407975844031</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05257039204776481</v>
+        <v>0.05384167656847904</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>853794056.754667</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2137716816.943247</v>
+        <v>1891076366.171782</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1069120592606946</v>
+        <v>0.1074723345981229</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04747380129993028</v>
+        <v>0.0449863645616821</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>42</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1068858365.057385</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4559534600.685603</v>
+        <v>4272172459.36721</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1292855664736606</v>
+        <v>0.1242751879206427</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03354734520478874</v>
+        <v>0.04565169804330474</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>52</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2279767264.731156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2130874069.085387</v>
+        <v>2003793410.980839</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1654330776253922</v>
+        <v>0.1020012934389418</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02771388582110749</v>
+        <v>0.03367450437499279</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1065437049.873154</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2867955507.50665</v>
+        <v>2917307859.23771</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1310261111486773</v>
+        <v>0.1037615534860934</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05112474142066094</v>
+        <v>0.03285687374354251</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>41</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1433977763.058909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1452567376.685873</v>
+        <v>1899907836.907007</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1280575902469515</v>
+        <v>0.1066778073574663</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02889570680371682</v>
+        <v>0.0401114059853187</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>726283733.7361486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4836224636.376264</v>
+        <v>4367512505.954761</v>
       </c>
       <c r="F97" t="n">
-        <v>0.131096306385684</v>
+        <v>0.1451351594584592</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01901261512558048</v>
+        <v>0.02786819309947278</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2418112441.784427</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2870051092.705659</v>
+        <v>2794518905.062068</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08925948967323168</v>
+        <v>0.08390862692868022</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02159161296085465</v>
+        <v>0.02476888681703357</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>45</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1435025522.209201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3001279714.263327</v>
+        <v>2189251514.850371</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09850410997069087</v>
+        <v>0.1020656837263591</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03199070867958274</v>
+        <v>0.02927656765221479</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1500639843.191818</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3849495316.973853</v>
+        <v>3025866616.795525</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1457998579372758</v>
+        <v>0.1542020240095028</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01925341181419982</v>
+        <v>0.02479315951610373</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1924747717.117037</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3241657201.057078</v>
+        <v>2533842555.49665</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1388799514013946</v>
+        <v>0.2051311421506836</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04269319715940051</v>
+        <v>0.04753627302042118</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>70</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1620828721.466902</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_172.xlsx
+++ b/output/fit_clients/fit_round_172.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1617145399.683254</v>
+        <v>1570348516.021851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1086828982963034</v>
+        <v>0.08695283862775106</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03019026566681035</v>
+        <v>0.02983461800752472</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1971822723.596625</v>
+        <v>2246447317.984042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1363418430719638</v>
+        <v>0.1775599554568345</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04999901577738625</v>
+        <v>0.03903020477263648</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3486370870.684164</v>
+        <v>5103149050.304345</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1106020803809025</v>
+        <v>0.1098967266661242</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0273720356370237</v>
+        <v>0.03474122954418545</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2802779856.933861</v>
+        <v>3151687692.413667</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0860996377798636</v>
+        <v>0.1052947055915681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03893718018720042</v>
+        <v>0.03943760854137014</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1900840146.203391</v>
+        <v>2772673586.822674</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1444399678526733</v>
+        <v>0.09400768347164896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04359750913604017</v>
+        <v>0.03753994602371476</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3032422622.302715</v>
+        <v>2751921556.261817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06165458728694518</v>
+        <v>0.07802853527212855</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03748622556969303</v>
+        <v>0.03157265666193162</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3671298738.910764</v>
+        <v>3683292849.194324</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1675762230462035</v>
+        <v>0.189537476993652</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02286047107239112</v>
+        <v>0.02130101937495721</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2038530502.034943</v>
+        <v>1726016825.744332</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1267449546494823</v>
+        <v>0.1754993822517305</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0244754893346928</v>
+        <v>0.03617693681928257</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4475867895.996604</v>
+        <v>4743927483.348638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1683649234236531</v>
+        <v>0.1395785649364967</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03969817085777448</v>
+        <v>0.05115146786398005</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3638048092.584584</v>
+        <v>3021044687.502869</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1792017106019794</v>
+        <v>0.1374997829137803</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03195081668666241</v>
+        <v>0.03489751567416464</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2020009227.311605</v>
+        <v>2413730549.984395</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1442022155349774</v>
+        <v>0.125429098988492</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03287267209270461</v>
+        <v>0.03673167071321358</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4395275069.159845</v>
+        <v>4302558636.364317</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1012789720751575</v>
+        <v>0.08192691525224567</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02540443742725134</v>
+        <v>0.02130562691462656</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3610035169.691598</v>
+        <v>3404479145.599861</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1193327811764053</v>
+        <v>0.1777599693779807</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02727140795225786</v>
+        <v>0.03563877461830736</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1238144116.835072</v>
+        <v>1190450249.446962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09565619277973426</v>
+        <v>0.079660140421476</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03263292287555592</v>
+        <v>0.03308136364143703</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1962206846.686498</v>
+        <v>1764013287.395979</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07279386494653479</v>
+        <v>0.1040650110898739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03810091299025233</v>
+        <v>0.03650691974609632</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5100102503.297195</v>
+        <v>4157909203.890286</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1456740176577993</v>
+        <v>0.1698700934758947</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03322014784531221</v>
+        <v>0.05018424596075621</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3652477274.206813</v>
+        <v>3297880407.687505</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1256221236374442</v>
+        <v>0.131964095553914</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0313711359175245</v>
+        <v>0.02947527485604076</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1270049725.887472</v>
+        <v>829230970.5250924</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1422865660979824</v>
+        <v>0.1620626036706002</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02705737298545287</v>
+        <v>0.02482967895833592</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2151840855.45463</v>
+        <v>2178878533.128922</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1324645295546964</v>
+        <v>0.1256787257778269</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02578696397517848</v>
+        <v>0.02830539362733964</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2497091842.203948</v>
+        <v>2092688898.684866</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0981880798763948</v>
+        <v>0.09857827968523665</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0311446846724707</v>
+        <v>0.02989126221224777</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3428919845.377243</v>
+        <v>2817110520.030323</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09841523516949553</v>
+        <v>0.1437128611576439</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04504830944282431</v>
+        <v>0.05670845985271627</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1338013102.534415</v>
+        <v>1508966690.880419</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1596887544233275</v>
+        <v>0.1149213014755534</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03687543702717734</v>
+        <v>0.0478248908183555</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3497258233.489386</v>
+        <v>2892135426.401226</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1167783387614722</v>
+        <v>0.1041111978881832</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03000230468215813</v>
+        <v>0.02276049609497664</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1173203068.272354</v>
+        <v>1336149527.533396</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08076854330094776</v>
+        <v>0.08034741219466229</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01865117965396599</v>
+        <v>0.02404553843058047</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1228692629.412038</v>
+        <v>885532543.011197</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1165680026225017</v>
+        <v>0.1243619266619325</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02378805645532704</v>
+        <v>0.02431293334969736</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3655496823.634829</v>
+        <v>3414908574.542965</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1368295118099759</v>
+        <v>0.1531177324633848</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02381724351331219</v>
+        <v>0.01733310685906631</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2664925739.722335</v>
+        <v>2559434656.312349</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1036523271300423</v>
+        <v>0.1340945846058055</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04061278889751004</v>
+        <v>0.03769594803702413</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3776446652.56053</v>
+        <v>4077280179.528453</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1517891087486969</v>
+        <v>0.09508006057106842</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03486362558296171</v>
+        <v>0.04568887147991953</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1508872380.185818</v>
+        <v>1854131067.044434</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1094447718335492</v>
+        <v>0.1377872103365508</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02693791143271061</v>
+        <v>0.03906500349088483</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1040369264.413862</v>
+        <v>1432223885.482981</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08533423258583278</v>
+        <v>0.1010139345782577</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0462089336492724</v>
+        <v>0.05247278310135662</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1560428935.092137</v>
+        <v>1780660911.245665</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1145327825176296</v>
+        <v>0.101252432585635</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03325553643952227</v>
+        <v>0.03842305574646906</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2664244497.23278</v>
+        <v>2019392350.342079</v>
       </c>
       <c r="F33" t="n">
-        <v>0.169909902963408</v>
+        <v>0.147287065998981</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03693344122586021</v>
+        <v>0.05590009849655562</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1073590235.076694</v>
+        <v>1245659287.481179</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08005787981718404</v>
+        <v>0.08686034887945275</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0211986024671001</v>
+        <v>0.02377786783043233</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1181392812.347969</v>
+        <v>1120714442.797405</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1137514635076457</v>
+        <v>0.1034788079297385</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03486448099247963</v>
+        <v>0.03192156553941347</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3030058020.553574</v>
+        <v>2540801878.819557</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1420805576139767</v>
+        <v>0.1359412056968632</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02611845355276678</v>
+        <v>0.02224236807641746</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1853890337.011761</v>
+        <v>2592265560.384901</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09376953813702926</v>
+        <v>0.1090901262487798</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02998454308326576</v>
+        <v>0.03218404415499891</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1803486073.578124</v>
+        <v>2070974891.55428</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07490497362079739</v>
+        <v>0.07643486510759802</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03998813870565032</v>
+        <v>0.03157414304763151</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1656108643.407457</v>
+        <v>1634939115.750321</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1183413776928391</v>
+        <v>0.1644498180230629</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02909394238042116</v>
+        <v>0.02631985573228653</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1452064745.268545</v>
+        <v>1377823752.533066</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1235943258720295</v>
+        <v>0.1119512929673808</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0398619887138961</v>
+        <v>0.04084006331107805</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2005602434.610943</v>
+        <v>2586063574.115319</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1540398400275921</v>
+        <v>0.1637941495811846</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03608503830105352</v>
+        <v>0.03357535070532433</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3405661997.63129</v>
+        <v>3135058930.401263</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1015584732742542</v>
+        <v>0.0881047338225605</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0282351066094864</v>
+        <v>0.0432007743920875</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2887184493.8614</v>
+        <v>2187028678.759093</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1712942605759646</v>
+        <v>0.130281589317167</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01732116310380361</v>
+        <v>0.01938208594522376</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2175474360.581318</v>
+        <v>1820607385.92348</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07927592124785796</v>
+        <v>0.06516240862096245</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03407471071483337</v>
+        <v>0.02567417253517495</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2266121469.054411</v>
+        <v>2097432574.472142</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1669774892177774</v>
+        <v>0.1250342474487139</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04803948679375863</v>
+        <v>0.04077660301760677</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5244424420.260526</v>
+        <v>4224425438.642408</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1400577847688341</v>
+        <v>0.1406973276386798</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0376571596393548</v>
+        <v>0.04749982032457135</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4335257324.368686</v>
+        <v>3948384362.857907</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1493069418225325</v>
+        <v>0.175587133539068</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05820188525806472</v>
+        <v>0.0535084275230163</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3522152611.874209</v>
+        <v>4339215489.883908</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08089336116767584</v>
+        <v>0.07720745398338308</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03389126233497336</v>
+        <v>0.03529800418894407</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1417455194.712336</v>
+        <v>1746807649.2072</v>
       </c>
       <c r="F49" t="n">
-        <v>0.122761538037961</v>
+        <v>0.1549471025895723</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03632268385534463</v>
+        <v>0.03479551017645127</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4169894195.064637</v>
+        <v>2671507276.534441</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1312810769923745</v>
+        <v>0.1724004135716266</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04346332758601571</v>
+        <v>0.03888601712315087</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1291903595.546089</v>
+        <v>1080280371.539396</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1936722673044062</v>
+        <v>0.1584283167821327</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04181851551226595</v>
+        <v>0.03906344953354066</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3296541461.472159</v>
+        <v>5190464758.970401</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1178136006873541</v>
+        <v>0.1050428490411183</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04135913062517147</v>
+        <v>0.05068357259054446</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3453805918.123988</v>
+        <v>3356144624.331966</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1367383803940267</v>
+        <v>0.1967927557589286</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0247545865424159</v>
+        <v>0.03292018286697342</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3824867031.106884</v>
+        <v>4754529467.177225</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1630119578309695</v>
+        <v>0.1414142801096992</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0484300977055255</v>
+        <v>0.04087867772459545</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3759303741.293338</v>
+        <v>4016836589.330219</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1545442459325312</v>
+        <v>0.2153463994912919</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02419917218247726</v>
+        <v>0.02942524199091609</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1559044926.603528</v>
+        <v>1343792197.000283</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1091677490941248</v>
+        <v>0.1193936390945962</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0562463302985963</v>
+        <v>0.03524070053581823</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3658193993.315051</v>
+        <v>3006923130.611055</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1847715306203676</v>
+        <v>0.1678508898649328</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02259649650408104</v>
+        <v>0.02284711525460681</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1235251541.213706</v>
+        <v>1847296706.53623</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1410125973347194</v>
+        <v>0.1695943301492932</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03353094611122394</v>
+        <v>0.0283351095253849</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3440192713.972144</v>
+        <v>4315997861.377038</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1259318098883686</v>
+        <v>0.09539379644126389</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03092117933497625</v>
+        <v>0.04776827696961081</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2284661194.404443</v>
+        <v>3139323248.600026</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1446209533536096</v>
+        <v>0.1761351554537574</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02789147129214361</v>
+        <v>0.03246927247707327</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3299202167.032681</v>
+        <v>2174065374.834478</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1314592064024441</v>
+        <v>0.1522993543725583</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03144418169606131</v>
+        <v>0.02636189060308437</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1446466124.546121</v>
+        <v>1376452177.459838</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1223750227015876</v>
+        <v>0.1843695143925841</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04584752350668284</v>
+        <v>0.03965675319977267</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5442792634.782302</v>
+        <v>5511209383.094321</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09416923220210109</v>
+        <v>0.06651172665220283</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04534115030029712</v>
+        <v>0.03307537776678959</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4994175285.726231</v>
+        <v>4437344068.206401</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1744748005563123</v>
+        <v>0.1196246116874823</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02893962104891354</v>
+        <v>0.02670446224754798</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4452278231.31424</v>
+        <v>4997187836.909186</v>
       </c>
       <c r="F65" t="n">
-        <v>0.147194353044321</v>
+        <v>0.1728141463300992</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02051931315677059</v>
+        <v>0.02455287050237168</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4977472161.436671</v>
+        <v>4961923087.730657</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09792871119432273</v>
+        <v>0.1584323763358582</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03157126997651424</v>
+        <v>0.05001634452424622</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2670111351.520233</v>
+        <v>3018300542.670136</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08604622955785812</v>
+        <v>0.08491785014778599</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04236082412026285</v>
+        <v>0.03173875591093357</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5892329484.018648</v>
+        <v>5886517184.519087</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1510004595629772</v>
+        <v>0.1579211155706252</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03774650110376029</v>
+        <v>0.04698236999277564</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1612801544.17859</v>
+        <v>1901327763.2731</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1200983251467723</v>
+        <v>0.1516318031489541</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04411144792643373</v>
+        <v>0.04649589417219113</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3075157274.592127</v>
+        <v>2849913853.624701</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06435558578331405</v>
+        <v>0.08208757595427157</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03595305867937088</v>
+        <v>0.03726287214678792</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3704864682.968389</v>
+        <v>5047187509.705845</v>
       </c>
       <c r="F71" t="n">
-        <v>0.164711115724515</v>
+        <v>0.1379154544506651</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02684904787746247</v>
+        <v>0.03346200066219557</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1856449221.056011</v>
+        <v>1892540447.227592</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09318868570626748</v>
+        <v>0.09486021825922182</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05164293639165234</v>
+        <v>0.04292621440446371</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3135209935.162083</v>
+        <v>2336298367.451506</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07331546108613736</v>
+        <v>0.09329222319121205</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03764042276263153</v>
+        <v>0.03683933504332192</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3968000105.584969</v>
+        <v>3203320279.485302</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1648497344645996</v>
+        <v>0.1148105702226646</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0336759813536766</v>
+        <v>0.02981948137509763</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1976577529.405003</v>
+        <v>2080579469.276766</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1179746498160822</v>
+        <v>0.1559487765232751</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03206321653401462</v>
+        <v>0.02814339730476984</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4748962547.455624</v>
+        <v>4954404851.24189</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08343493496885271</v>
+        <v>0.08308014843212733</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0324907102863975</v>
+        <v>0.0304130041711648</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2112092959.556706</v>
+        <v>1963223899.306001</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1562713297151499</v>
+        <v>0.1439359579935303</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02289789592808495</v>
+        <v>0.02578294984755131</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3862693319.146071</v>
+        <v>3574053005.37004</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08385734829525153</v>
+        <v>0.1116422704853934</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04218863401201452</v>
+        <v>0.03761507650863363</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1360554726.426006</v>
+        <v>1768385781.175648</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1378765132919063</v>
+        <v>0.1698892088230373</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03907497946507513</v>
+        <v>0.02479643471755574</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3719677494.983611</v>
+        <v>4815678919.481569</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09915797354690703</v>
+        <v>0.08237794128538796</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03557742185956828</v>
+        <v>0.02924253303959142</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4918961823.483651</v>
+        <v>3677318949.479056</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09609003070972265</v>
+        <v>0.1215084360214112</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02095081223173638</v>
+        <v>0.02910926214257985</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4143992206.80638</v>
+        <v>4404154909.781777</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1522640941988161</v>
+        <v>0.1792453343077697</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01835001912511025</v>
+        <v>0.02844752584581692</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2203199845.734947</v>
+        <v>1638314614.230584</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1343760336299366</v>
+        <v>0.1354840791994595</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03133918246019965</v>
+        <v>0.03987642371925461</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1901727473.095344</v>
+        <v>2096740556.504427</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1193304593701572</v>
+        <v>0.1056650770371708</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04273419669266565</v>
+        <v>0.03470111405795272</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2501207552.503739</v>
+        <v>2526199012.633325</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1660649383150377</v>
+        <v>0.1480080771177391</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05052998279823953</v>
+        <v>0.04973200328136877</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1824606328.694198</v>
+        <v>2279185025.328216</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1559056887035065</v>
+        <v>0.1136301262277074</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01749032715436278</v>
+        <v>0.02147611504618492</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1364474837.817964</v>
+        <v>1179097125.778733</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1395070196279812</v>
+        <v>0.1567069014782757</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03162328415876285</v>
+        <v>0.03918476454126537</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2271740616.606838</v>
+        <v>3193730111.562198</v>
       </c>
       <c r="F88" t="n">
-        <v>0.167533811407644</v>
+        <v>0.1586616059968903</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02494951134303783</v>
+        <v>0.03696756883788139</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3207045703.763888</v>
+        <v>2322739387.980596</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09687605518772299</v>
+        <v>0.1458648008780559</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03665960549858961</v>
+        <v>0.04155797687833566</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1728334883.427199</v>
+        <v>1779486177.741776</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09425905612664971</v>
+        <v>0.1175714065935519</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04518782870429301</v>
+        <v>0.04920655585987725</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1895956927.790145</v>
+        <v>1795947826.785591</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1391407975844031</v>
+        <v>0.1527534862303682</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05384167656847904</v>
+        <v>0.06036940004224908</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1891076366.171782</v>
+        <v>1872039981.19597</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1074723345981229</v>
+        <v>0.08794886900452661</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0449863645616821</v>
+        <v>0.04460876852436006</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4272172459.36721</v>
+        <v>3748115751.065265</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1242751879206427</v>
+        <v>0.08846894631056998</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04565169804330474</v>
+        <v>0.04084582306745631</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2003793410.980839</v>
+        <v>1562438123.903194</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1020012934389418</v>
+        <v>0.1403344917565767</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03367450437499279</v>
+        <v>0.03333047918257598</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2917307859.23771</v>
+        <v>3180179440.530937</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1037615534860934</v>
+        <v>0.1135879548782069</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03285687374354251</v>
+        <v>0.05248193910792474</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1899907836.907007</v>
+        <v>2070683973.255441</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1066778073574663</v>
+        <v>0.09328224695739544</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0401114059853187</v>
+        <v>0.04056634148180635</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4367512505.954761</v>
+        <v>4258517248.928778</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1451351594584592</v>
+        <v>0.1646144229606998</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02786819309947278</v>
+        <v>0.02615712403247836</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2794518905.062068</v>
+        <v>3680143693.244451</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08390862692868022</v>
+        <v>0.1282209921780827</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02476888681703357</v>
+        <v>0.02246807664186963</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2189251514.850371</v>
+        <v>3160896170.338923</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1020656837263591</v>
+        <v>0.1445896517661184</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02927656765221479</v>
+        <v>0.02481950622569788</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3025866616.795525</v>
+        <v>3916803705.981691</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1542020240095028</v>
+        <v>0.1452562677879916</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02479315951610373</v>
+        <v>0.02772355718973689</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2533842555.49665</v>
+        <v>3328776432.137177</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2051311421506836</v>
+        <v>0.1605940829686278</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04753627302042118</v>
+        <v>0.03837739141678764</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_172.xlsx
+++ b/output/fit_clients/fit_round_172.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1570348516.021851</v>
+        <v>2379788637.089418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08695283862775106</v>
+        <v>0.07317273731140934</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02983461800752472</v>
+        <v>0.03028388703561777</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2246447317.984042</v>
+        <v>1625842107.029617</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1775599554568345</v>
+        <v>0.158481144141209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03903020477263648</v>
+        <v>0.03240302078743634</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5103149050.304345</v>
+        <v>4958935971.711377</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1098967266661242</v>
+        <v>0.1527475669161315</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03474122954418545</v>
+        <v>0.036291931801589</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>172</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3151687692.413667</v>
+        <v>4198460237.619744</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1052947055915681</v>
+        <v>0.06842550670176743</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03943760854137014</v>
+        <v>0.03092133773015784</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>172</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2772673586.822674</v>
+        <v>2538906189.844168</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09400768347164896</v>
+        <v>0.1455311469256061</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03753994602371476</v>
+        <v>0.04085175855313018</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2751921556.261817</v>
+        <v>1915030041.857771</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07802853527212855</v>
+        <v>0.09746083970433711</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03157265666193162</v>
+        <v>0.04755812149422745</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3683292849.194324</v>
+        <v>3581544878.725735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.189537476993652</v>
+        <v>0.2043530854552074</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02130101937495721</v>
+        <v>0.03023445907641498</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>49</v>
+      </c>
+      <c r="J8" t="n">
+        <v>169</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1726016825.744332</v>
+        <v>1573511403.40514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1754993822517305</v>
+        <v>0.1935707223231545</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03617693681928257</v>
+        <v>0.03627613892104493</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4743927483.348638</v>
+        <v>4290394710.822699</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1395785649364967</v>
+        <v>0.2051602035529509</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05115146786398005</v>
+        <v>0.03991889503130222</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>158</v>
+      </c>
+      <c r="J10" t="n">
+        <v>172</v>
+      </c>
+      <c r="K10" t="n">
+        <v>142.8484981738868</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +818,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3021044687.502869</v>
+        <v>2837506793.653246</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1374997829137803</v>
+        <v>0.1494696950843146</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03489751567416464</v>
+        <v>0.03130471479549767</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>72</v>
+      </c>
+      <c r="J11" t="n">
+        <v>171</v>
+      </c>
+      <c r="K11" t="n">
+        <v>70.86490279257158</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2413730549.984395</v>
+        <v>2009750518.724565</v>
       </c>
       <c r="F12" t="n">
-        <v>0.125429098988492</v>
+        <v>0.1439980000242009</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03673167071321358</v>
+        <v>0.03483168957727283</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4302558636.364317</v>
+        <v>4800695003.863688</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08192691525224567</v>
+        <v>0.09443641333622654</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02130562691462656</v>
+        <v>0.02486650787449668</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>84</v>
+      </c>
+      <c r="J13" t="n">
+        <v>172</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3404479145.599861</v>
+        <v>2489418175.336579</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1777599693779807</v>
+        <v>0.1283800058981116</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03563877461830736</v>
+        <v>0.03985967125214185</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>171</v>
+      </c>
+      <c r="K14" t="n">
+        <v>50.52573790421164</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1190450249.446962</v>
+        <v>1763508316.45702</v>
       </c>
       <c r="F15" t="n">
-        <v>0.079660140421476</v>
+        <v>0.07180925437803826</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03308136364143703</v>
+        <v>0.04778553673083449</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1764013287.395979</v>
+        <v>2790487233.252191</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1040650110898739</v>
+        <v>0.09898206919031234</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03650691974609632</v>
+        <v>0.03277660865388415</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4157909203.890286</v>
+        <v>4997822828.4966</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1698700934758947</v>
+        <v>0.107762461191732</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05018424596075621</v>
+        <v>0.03759552940774399</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>82</v>
+      </c>
+      <c r="J17" t="n">
+        <v>172</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3297880407.687505</v>
+        <v>3971638399.323506</v>
       </c>
       <c r="F18" t="n">
-        <v>0.131964095553914</v>
+        <v>0.1718046658667368</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02947527485604076</v>
+        <v>0.02633366998579223</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>44</v>
+      </c>
+      <c r="J18" t="n">
+        <v>171</v>
+      </c>
+      <c r="K18" t="n">
+        <v>128.5277023154346</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>829230970.5250924</v>
+        <v>1132220952.397728</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1620626036706002</v>
+        <v>0.1816953804533468</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02482967895833592</v>
+        <v>0.02180000004181921</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2178878533.128922</v>
+        <v>1852571376.838228</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1256787257778269</v>
+        <v>0.15214647015592</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02830539362733964</v>
+        <v>0.02146700479023374</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2092688898.684866</v>
+        <v>2129896839.216541</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09857827968523665</v>
+        <v>0.08357523475050693</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02989126221224777</v>
+        <v>0.03352259777467851</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2817110520.030323</v>
+        <v>2864110441.216161</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1437128611576439</v>
+        <v>0.1225856993168283</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05670845985271627</v>
+        <v>0.03684103507291567</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>166</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1508966690.880419</v>
+        <v>1278283822.663537</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1149213014755534</v>
+        <v>0.1157424185568994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0478248908183555</v>
+        <v>0.03398204653376209</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2892135426.401226</v>
+        <v>3111938059.71098</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1041111978881832</v>
+        <v>0.09980034141009705</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02276049609497664</v>
+        <v>0.0313682097030482</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>51</v>
+      </c>
+      <c r="J24" t="n">
+        <v>168</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1336149527.533396</v>
+        <v>909482673.1011134</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08034741219466229</v>
+        <v>0.09483479693649326</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02404553843058047</v>
+        <v>0.01924683366593223</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>885532543.011197</v>
+        <v>897527832.6552795</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1243619266619325</v>
+        <v>0.11117401952226</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02431293334969736</v>
+        <v>0.02889906317399506</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3414908574.542965</v>
+        <v>3548167086.564561</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1531177324633848</v>
+        <v>0.1328998390468888</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01733310685906631</v>
+        <v>0.0176962467451784</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>69</v>
+      </c>
+      <c r="J27" t="n">
+        <v>171</v>
+      </c>
+      <c r="K27" t="n">
+        <v>88.66221468133065</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2559434656.312349</v>
+        <v>2802654796.003213</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1340945846058055</v>
+        <v>0.1154492383667043</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03769594803702413</v>
+        <v>0.04345805541990554</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
+      <c r="J28" t="n">
+        <v>171</v>
+      </c>
+      <c r="K28" t="n">
+        <v>64.67975144282489</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4077280179.528453</v>
+        <v>4693852396.975471</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09508006057106842</v>
+        <v>0.1186826666552093</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04568887147991953</v>
+        <v>0.03631780565781127</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>161</v>
+      </c>
+      <c r="J29" t="n">
+        <v>172</v>
+      </c>
+      <c r="K29" t="n">
+        <v>150.2528358316788</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1854131067.044434</v>
+        <v>1604425447.767083</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1377872103365508</v>
+        <v>0.1195330836079818</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03906500349088483</v>
+        <v>0.03051645575085185</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1432223885.482981</v>
+        <v>1248479547.133426</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1010139345782577</v>
+        <v>0.09835921886019018</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05247278310135662</v>
+        <v>0.03794960115554999</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1780660911.245665</v>
+        <v>1534650539.428367</v>
       </c>
       <c r="F32" t="n">
-        <v>0.101252432585635</v>
+        <v>0.1124390145456888</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03842305574646906</v>
+        <v>0.03003425372932442</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2019392350.342079</v>
+        <v>2026515537.546938</v>
       </c>
       <c r="F33" t="n">
-        <v>0.147287065998981</v>
+        <v>0.1617347953379544</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05590009849655562</v>
+        <v>0.03745652962065271</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1245659287.481179</v>
+        <v>1276880158.188464</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08686034887945275</v>
+        <v>0.07370849129158792</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02377786783043233</v>
+        <v>0.02280783471260974</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1120714442.797405</v>
+        <v>1094707385.686541</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1034788079297385</v>
+        <v>0.0742454039390322</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03192156553941347</v>
+        <v>0.03659522606243634</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2540801878.819557</v>
+        <v>3101804106.691714</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1359412056968632</v>
+        <v>0.1654910394685151</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02224236807641746</v>
+        <v>0.02283120826865554</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2592265560.384901</v>
+        <v>2102446151.431466</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1090901262487798</v>
+        <v>0.07901221688999351</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03218404415499891</v>
+        <v>0.03038303794753926</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2070974891.55428</v>
+        <v>1561864818.489352</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07643486510759802</v>
+        <v>0.110128280793792</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03157414304763151</v>
+        <v>0.02503854605745296</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1634939115.750321</v>
+        <v>1825630697.039612</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1644498180230629</v>
+        <v>0.1226143162219494</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02631985573228653</v>
+        <v>0.02444319273377185</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1377823752.533066</v>
+        <v>1187060460.943814</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1119512929673808</v>
+        <v>0.1019802001729173</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04084006331107805</v>
+        <v>0.05623871503129664</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2586063574.115319</v>
+        <v>2877071190.544633</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1637941495811846</v>
+        <v>0.1353212688365805</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03357535070532433</v>
+        <v>0.04134552954795523</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3135058930.401263</v>
+        <v>3756978049.145928</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0881047338225605</v>
+        <v>0.08740018082388275</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0432007743920875</v>
+        <v>0.03718077826988592</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>64</v>
+      </c>
+      <c r="J42" t="n">
+        <v>171</v>
+      </c>
+      <c r="K42" t="n">
+        <v>118.6544074385731</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2187028678.759093</v>
+        <v>2850724976.998852</v>
       </c>
       <c r="F43" t="n">
-        <v>0.130281589317167</v>
+        <v>0.1962242019884927</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01938208594522376</v>
+        <v>0.02425470263320196</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1820607385.92348</v>
+        <v>2339697413.45619</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06516240862096245</v>
+        <v>0.08127664667700123</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02567417253517495</v>
+        <v>0.02347408007575798</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2097432574.472142</v>
+        <v>1708429731.489615</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1250342474487139</v>
+        <v>0.1786171119520021</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04077660301760677</v>
+        <v>0.0415663280062914</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4224425438.642408</v>
+        <v>3705571831.013879</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1406973276386798</v>
+        <v>0.1337299263192187</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04749982032457135</v>
+        <v>0.03901294589148328</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>97</v>
+      </c>
+      <c r="J46" t="n">
+        <v>171</v>
+      </c>
+      <c r="K46" t="n">
+        <v>115.6062851251798</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3948384362.857907</v>
+        <v>4927689087.201555</v>
       </c>
       <c r="F47" t="n">
-        <v>0.175587133539068</v>
+        <v>0.2023992240611621</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0535084275230163</v>
+        <v>0.04488916177026982</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>76</v>
+      </c>
+      <c r="J47" t="n">
+        <v>172</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4339215489.883908</v>
+        <v>3078978286.439199</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07720745398338308</v>
+        <v>0.1076082638742379</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03529800418894407</v>
+        <v>0.03518546726192692</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>78</v>
+      </c>
+      <c r="J48" t="n">
+        <v>170</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1746807649.2072</v>
+        <v>1618961106.035628</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1549471025895723</v>
+        <v>0.1266563679421907</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03479551017645127</v>
+        <v>0.03881950546823641</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2671507276.534441</v>
+        <v>3054961553.326564</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1724004135716266</v>
+        <v>0.1097342716649054</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03888601712315087</v>
+        <v>0.04449841057800615</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>56</v>
+      </c>
+      <c r="J50" t="n">
+        <v>171</v>
+      </c>
+      <c r="K50" t="n">
+        <v>77.66290252291608</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1080280371.539396</v>
+        <v>1011136175.307129</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1584283167821327</v>
+        <v>0.1461000150077674</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03906344953354066</v>
+        <v>0.05022381250413448</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5190464758.970401</v>
+        <v>4486502697.442204</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1050428490411183</v>
+        <v>0.1232216513903501</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05068357259054446</v>
+        <v>0.05293840620427027</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>122</v>
+      </c>
+      <c r="J52" t="n">
+        <v>172</v>
+      </c>
+      <c r="K52" t="n">
+        <v>130.4638340219763</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3356144624.331966</v>
+        <v>3289617783.21069</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1967927557589286</v>
+        <v>0.1871601995129231</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03292018286697342</v>
+        <v>0.02357343392157909</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>170</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4754529467.177225</v>
+        <v>4528579321.238026</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1414142801096992</v>
+        <v>0.1677654042973766</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04087867772459545</v>
+        <v>0.04942174777508163</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>85</v>
+      </c>
+      <c r="J54" t="n">
+        <v>172</v>
+      </c>
+      <c r="K54" t="n">
+        <v>134.4500439478512</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4016836589.330219</v>
+        <v>3637299604.555766</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2153463994912919</v>
+        <v>0.2061552763640881</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02942524199091609</v>
+        <v>0.02731759030822387</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>78</v>
+      </c>
+      <c r="J55" t="n">
+        <v>170</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1343792197.000283</v>
+        <v>1167880698.2691</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1193936390945962</v>
+        <v>0.1626909028969527</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03524070053581823</v>
+        <v>0.03766728534436575</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3006923130.611055</v>
+        <v>4451284241.04076</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1678508898649328</v>
+        <v>0.1836480998784817</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02284711525460681</v>
+        <v>0.01724780963818828</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>69</v>
+      </c>
+      <c r="J57" t="n">
+        <v>172</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1847296706.53623</v>
+        <v>1697450908.333012</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1695943301492932</v>
+        <v>0.1816654536368203</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0283351095253849</v>
+        <v>0.02593158154821957</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4315997861.377038</v>
+        <v>5078422207.19066</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09539379644126389</v>
+        <v>0.1119593313129433</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04776827696961081</v>
+        <v>0.04127336508238477</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>83</v>
+      </c>
+      <c r="J59" t="n">
+        <v>171</v>
+      </c>
+      <c r="K59" t="n">
+        <v>121.34764593682</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3139323248.600026</v>
+        <v>2455367650.404527</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1761351554537574</v>
+        <v>0.1556746219255219</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03246927247707327</v>
+        <v>0.02669044112105856</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2174065374.834478</v>
+        <v>2117732078.669837</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1522993543725583</v>
+        <v>0.1087272655139068</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02636189060308437</v>
+        <v>0.02036874046870896</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1376452177.459838</v>
+        <v>1835034667.070284</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1843695143925841</v>
+        <v>0.1665355692486281</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03965675319977267</v>
+        <v>0.0432617645920222</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2656,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5511209383.094321</v>
+        <v>4490499483.560384</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06651172665220283</v>
+        <v>0.08390679159090422</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03307537776678959</v>
+        <v>0.04507987064942614</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>84</v>
+      </c>
+      <c r="J63" t="n">
+        <v>172</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4437344068.206401</v>
+        <v>3578056895.319538</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1196246116874823</v>
+        <v>0.1276579645934259</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02670446224754798</v>
+        <v>0.02558008221348577</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>85</v>
+      </c>
+      <c r="J64" t="n">
+        <v>171</v>
+      </c>
+      <c r="K64" t="n">
+        <v>100.9675843346635</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4997187836.909186</v>
+        <v>4107732234.182602</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1728141463300992</v>
+        <v>0.1661390563003779</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02455287050237168</v>
+        <v>0.02170720872298533</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>141</v>
+      </c>
+      <c r="J65" t="n">
+        <v>172</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4961923087.730657</v>
+        <v>5718075265.993391</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1584323763358582</v>
+        <v>0.1411238683969962</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05001634452424622</v>
+        <v>0.03097829087810923</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>84</v>
+      </c>
+      <c r="J66" t="n">
+        <v>172</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3018300542.670136</v>
+        <v>3083539203.196752</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08491785014778599</v>
+        <v>0.07710569789616389</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03173875591093357</v>
+        <v>0.04898293449345084</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5886517184.519087</v>
+        <v>5831115800.811626</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1579211155706252</v>
+        <v>0.1480638466931651</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04698236999277564</v>
+        <v>0.04454775517956386</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>86</v>
+      </c>
+      <c r="J68" t="n">
+        <v>172</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1901327763.2731</v>
+        <v>2212409792.147203</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1516318031489541</v>
+        <v>0.1525181683068064</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04649589417219113</v>
+        <v>0.04658378574053847</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2849913853.624701</v>
+        <v>3499656158.91256</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08208757595427157</v>
+        <v>0.07007805171829731</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03726287214678792</v>
+        <v>0.03930793302403098</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5047187509.705845</v>
+        <v>3904989463.311975</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1379154544506651</v>
+        <v>0.1306887819415483</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03346200066219557</v>
+        <v>0.02297922393885461</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>136</v>
+      </c>
+      <c r="J71" t="n">
+        <v>171</v>
+      </c>
+      <c r="K71" t="n">
+        <v>127.1028515706589</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1892540447.227592</v>
+        <v>1416228168.113397</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09486021825922182</v>
+        <v>0.1079599677419586</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04292621440446371</v>
+        <v>0.05206255371764607</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2336298367.451506</v>
+        <v>2879975940.735089</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09329222319121205</v>
+        <v>0.06875598244933748</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03683933504332192</v>
+        <v>0.05092365358721752</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3203320279.485302</v>
+        <v>3773571063.055863</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1148105702226646</v>
+        <v>0.1505540978392474</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02981948137509763</v>
+        <v>0.02499789579437535</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>50</v>
+      </c>
+      <c r="J74" t="n">
+        <v>172</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2080579469.276766</v>
+        <v>2439185873.810775</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1559487765232751</v>
+        <v>0.1258107543952863</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02814339730476984</v>
+        <v>0.02702224002359828</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4954404851.24189</v>
+        <v>4110209780.984107</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08308014843212733</v>
+        <v>0.1236519802313342</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0304130041711648</v>
+        <v>0.02193009085051539</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>78</v>
+      </c>
+      <c r="J76" t="n">
+        <v>172</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1963223899.306001</v>
+        <v>2104912737.15549</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1439359579935303</v>
+        <v>0.1643930794241081</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02578294984755131</v>
+        <v>0.03046493640174519</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3191,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3574053005.37004</v>
+        <v>4632009965.263835</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1116422704853934</v>
+        <v>0.1026426320249548</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03761507650863363</v>
+        <v>0.05209195429920654</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>86</v>
+      </c>
+      <c r="J78" t="n">
+        <v>172</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1768385781.175648</v>
+        <v>1339911739.160293</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1698892088230373</v>
+        <v>0.1085753971599142</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02479643471755574</v>
+        <v>0.03473690292792905</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4815678919.481569</v>
+        <v>5046722132.227635</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08237794128538796</v>
+        <v>0.09203240284123505</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02924253303959142</v>
+        <v>0.02736103141140891</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>84</v>
+      </c>
+      <c r="J80" t="n">
+        <v>171</v>
+      </c>
+      <c r="K80" t="n">
+        <v>95.73843757264564</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3677318949.479056</v>
+        <v>4657546434.037102</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1215084360214112</v>
+        <v>0.1344879159628161</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02910926214257985</v>
+        <v>0.02741787730761719</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>79</v>
+      </c>
+      <c r="J81" t="n">
+        <v>171</v>
+      </c>
+      <c r="K81" t="n">
+        <v>113.4042040479079</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4404154909.781777</v>
+        <v>4347128427.8056</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1792453343077697</v>
+        <v>0.2115063881715006</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02844752584581692</v>
+        <v>0.01995368183138249</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>127</v>
+      </c>
+      <c r="J82" t="n">
+        <v>172</v>
+      </c>
+      <c r="K82" t="n">
+        <v>138.1247792254356</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1638314614.230584</v>
+        <v>1902808895.469605</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1354840791994595</v>
+        <v>0.1002245568680548</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03987642371925461</v>
+        <v>0.03827063330550436</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2096740556.504427</v>
+        <v>1844539321.254763</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1056650770371708</v>
+        <v>0.09680624770228194</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03470111405795272</v>
+        <v>0.04326072760417505</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2526199012.633325</v>
+        <v>2297163334.668132</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1480080771177391</v>
+        <v>0.1426919700690084</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04973200328136877</v>
+        <v>0.05565714943121283</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2279185025.328216</v>
+        <v>1748713536.480747</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1136301262277074</v>
+        <v>0.1145841455009717</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02147611504618492</v>
+        <v>0.02175841391026561</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1179097125.778733</v>
+        <v>1461423256.687434</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1567069014782757</v>
+        <v>0.1414873967524648</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03918476454126537</v>
+        <v>0.03913176329378382</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3193730111.562198</v>
+        <v>3091745688.400874</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1586616059968903</v>
+        <v>0.1581723913159181</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03696756883788139</v>
+        <v>0.0326932441335302</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2322739387.980596</v>
+        <v>2516513708.800886</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1458648008780559</v>
+        <v>0.1396750524444451</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04155797687833566</v>
+        <v>0.03737178634558775</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1779486177.741776</v>
+        <v>1732062051.056785</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1175714065935519</v>
+        <v>0.1035296338161269</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04920655585987725</v>
+        <v>0.04099720631214938</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1795947826.785591</v>
+        <v>1463742714.15511</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1527534862303682</v>
+        <v>0.1404215312478093</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06036940004224908</v>
+        <v>0.03908137352101956</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1872039981.19597</v>
+        <v>2905396415.091446</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08794886900452661</v>
+        <v>0.08902341577029824</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04460876852436006</v>
+        <v>0.03912634596755299</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3748115751.065265</v>
+        <v>4978363752.085361</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08846894631056998</v>
+        <v>0.1124577654343697</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04084582306745631</v>
+        <v>0.04168397805322592</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>77</v>
+      </c>
+      <c r="J93" t="n">
+        <v>171</v>
+      </c>
+      <c r="K93" t="n">
+        <v>124.1672384690078</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1562438123.903194</v>
+        <v>2345050111.315225</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1403344917565767</v>
+        <v>0.1335812763900464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03333047918257598</v>
+        <v>0.0419927288353056</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3180179440.530937</v>
+        <v>2037936006.681737</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1135879548782069</v>
+        <v>0.110635659091594</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05248193910792474</v>
+        <v>0.04301647078474771</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2070683973.255441</v>
+        <v>1688672042.784445</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09328224695739544</v>
+        <v>0.09410481307300124</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04056634148180635</v>
+        <v>0.02875282114836417</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4258517248.928778</v>
+        <v>4141262660.633333</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1646144229606998</v>
+        <v>0.1357755249901816</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02615712403247836</v>
+        <v>0.02793284169884637</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>83</v>
+      </c>
+      <c r="J97" t="n">
+        <v>171</v>
+      </c>
+      <c r="K97" t="n">
+        <v>125.9471270411184</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3680143693.244451</v>
+        <v>3898578478.397758</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1282209921780827</v>
+        <v>0.09692412431960411</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02246807664186963</v>
+        <v>0.02918172817591651</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>41</v>
+      </c>
+      <c r="J98" t="n">
+        <v>172</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3160896170.338923</v>
+        <v>2136230861.257874</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1445896517661184</v>
+        <v>0.1170290904385868</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02481950622569788</v>
+        <v>0.03173058967888068</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3916803705.981691</v>
+        <v>4145785105.815226</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1452562677879916</v>
+        <v>0.1429133565990088</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02772355718973689</v>
+        <v>0.02704682914250479</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>71</v>
+      </c>
+      <c r="J100" t="n">
+        <v>172</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3328776432.137177</v>
+        <v>3363950233.42594</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1605940829686278</v>
+        <v>0.1643058514490857</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03837739141678764</v>
+        <v>0.05365707700415085</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>167</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
